--- a/ECV_time_coverage_perProduct.xlsx
+++ b/ECV_time_coverage_perProduct.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,7 +586,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Clouds (CCI)</t>
+          <t>Clouds</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,16 +612,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Clouds (CMSAF/CLARA)</t>
+          <t>Earth Rad Budget - C3S CCI</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>Earth Radiation Budget</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-10-31</t>
+          <t>2024-09-24</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Earth Rad Budget - C3S CCI</t>
+          <t>Earth Rad Budget - C3S RMIB TotSolarIrrad</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>2024-10-11</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -672,11 +672,11 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Earth Rad Budget - C3S RMIB TotSolarIrrad</t>
+          <t>Earth Rad Budget - ESA CLOUD CCI</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-09-24</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -702,11 +702,11 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Earth Rad Budget - ESA CLOUD CCI</t>
+          <t>Earth Rad Budget - NASA CERES EBAF</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>2024-09-24</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Earth Rad Budget - NASA CERES EBAF</t>
+          <t>Earth Rad Budget - NOAA/NCEI HIRS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>2024-09-24</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -762,16 +762,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Earth Rad Budget - NOAA/NCEI HIRS</t>
+          <t>Precipitation</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Earth Radiation Budget</t>
+          <t>Precipitation</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>2024-03-31</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -796,22 +796,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Precipitation_microwave</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>Precipitation</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Precipitation</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1979-01-01</t>
+          <t>2000-01-01</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2017-12-31</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -822,26 +822,26 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Precipitation_microwave</t>
+          <t>Surface Rad Budget (CCI)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Precipitation</t>
+          <t>Surface Radiation Budget</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2000-01-01</t>
+          <t>1979-01-01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2017-12-31</t>
+          <t>2023-10-31</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -852,11 +852,11 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Surface Rad Budget (CCI)</t>
+          <t>Surface Rad Budget - (CMSAF/CLARA)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -882,26 +882,26 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Surface Rad Budget - (CMSAF/CLARA)</t>
+          <t>Total Column Water Vapour (HOAPS)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Surface Radiation Budget</t>
+          <t>Upper-air Water Vapour</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1979-01-01</t>
+          <t>1988-01-31</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2023-10-31</t>
+          <t>2020-12-31</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Total Column Water Vapour (HOAPS)</t>
+          <t>Total Column Water Vapour (MERIS/SSMI)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -926,12 +926,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1988-01-31</t>
+          <t>2002-05-01</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>2017-12-31</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Total Column Water Vapour (MERIS/SSMI)</t>
+          <t>Tropospheric Humidity Profiles (RO)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -956,12 +956,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2002-05-01</t>
+          <t>2006-12-01</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2017-12-31</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tropospheric Humidity Profiles (RO)</t>
+          <t>Upper Tropospheric Humidity</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -986,12 +986,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2006-12-01</t>
+          <t>1999-01-01</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2021-02-28</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1002,31 +1002,31 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Upper Tropospheric Humidity</t>
+          <t>Glaciers elevation and mass change data</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Upper-air Water Vapour</t>
+          <t>Glaciers</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1999-01-01</t>
+          <t>1975-04-01</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2021-02-28</t>
+          <t>2021-09-30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Atmospheric Physics</t>
+          <t>Cryosphere</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Glaciers elevation and mass change data</t>
+          <t>Randolph Glacier Inventory for the year 2000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1975-04-01</t>
+          <t>1990-01-01</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>2010-12-31</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1062,26 +1062,26 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Randolph Glacier Inventory for the year 2000</t>
+          <t>Ice Sheet Gravimetric Mass Balance</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Glaciers</t>
+          <t>Ice Sheets</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1990-01-01</t>
+          <t>2002-04-16</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2010-12-31</t>
+          <t>2022-12-17</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ice Sheet Gravimetric Mass Balance</t>
+          <t>Ice Sheet Surface Elevation Change (Antarctica)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2002-04-16</t>
+          <t>1994-11-01</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2022-12-17</t>
+          <t>2020-06-01</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ice Sheet Surface Elevation Change (Antarctica)</t>
+          <t>Ice Sheet Surface Elevation Change (Greenland)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1136,12 +1136,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1994-11-01</t>
+          <t>1992-01-01</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2020-06-01</t>
+          <t>2024-01-01</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1152,11 +1152,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ice Sheet Surface Elevation Change (Greenland)</t>
+          <t>Ice Sheet Velocity (Greenland)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1166,12 +1166,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1992-01-01</t>
+          <t>2018-10-01</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2021-09-30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1182,46 +1182,46 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ice Sheet Velocity (Greenland)</t>
+          <t>Surface Albedo 10-daily</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ice Sheets</t>
+          <t>Albedo</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2018-10-01</t>
+          <t>1981-09-20</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>2020-06-30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Cryosphere</t>
+          <t>Land Biosphere</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Surface Albedo 10-daily</t>
+          <t>FAPAR</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Albedo</t>
+          <t>FAPAR</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1242,26 +1242,26 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FAPAR</t>
+          <t>Fire Burned Areas</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>FAPAR</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1981-09-20</t>
+          <t>2001-01-01</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1272,11 +1272,11 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Fire Burned Areas</t>
+          <t>Fire Radiative Power</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1286,12 +1286,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2001-01-01</t>
+          <t>2020-02-01</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2023-05-31</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1302,26 +1302,26 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fire Radiative Power</t>
+          <t>LAI</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>LAI</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2020-02-01</t>
+          <t>1981-09-20</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2021-02-28</t>
+          <t>2020-06-30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1332,26 +1332,26 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>LAI</t>
+          <t>Land Cover</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>LAI</t>
+          <t>Land Cover</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1981-09-20</t>
+          <t>1992-01-01</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1362,31 +1362,31 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Land Cover</t>
+          <t>Lake Surface Temperature</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Land Cover</t>
+          <t>Lakes</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1992-01-01</t>
+          <t>1995-06-01</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2023-12-31</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Land Biosphere</t>
+          <t>Land Hydrology</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Lake Surface Temperature</t>
+          <t>Lake Water Level</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1995-06-01</t>
+          <t>1992-10-13</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2023-12-24</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1426,22 +1426,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Lake Water Level</t>
+          <t>Soil Moisture</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Lakes</t>
+          <t>Soil Moisture</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1992-10-13</t>
+          <t>1978-11-01</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2022-12-22</t>
+          <t>2024-09-30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1452,116 +1452,116 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Soil Moisture (active MW)</t>
+          <t>Ocean Colour</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Soil Moisture</t>
+          <t>Ocean Colour</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1978-11-01</t>
+          <t>1997-09-04</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Land Hydrology</t>
+          <t>Ocean</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Soil Moisture (merged)</t>
+          <t>SST</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Soil Moisture</t>
+          <t>SST</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1978-11-01</t>
+          <t>1981-08-24</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Land Hydrology</t>
+          <t>Ocean</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Soil Moisture (passive MW)</t>
+          <t>SST (ESA CCI GMPE)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Soil Moisture</t>
+          <t>SST</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1978-11-01</t>
+          <t>1981-09-01</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2016-12-31</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Land Hydrology</t>
+          <t>Ocean</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ocean Colour</t>
+          <t>Sea Ice Concentration</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ocean Colour</t>
+          <t>Sea Ice</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1997-09-04</t>
+          <t>1978-10-25</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2024-03-31</t>
+          <t>2024-09-30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1572,26 +1572,26 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>Sea Ice Edge and Type</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>Sea Ice</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1981-08-24</t>
+          <t>1978-10-25</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2024-09-30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1602,26 +1602,26 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SST (ESA CCI GMPE)</t>
+          <t>Sea Ice Thickness</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>Sea Ice</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1981-09-01</t>
+          <t>2002-10-01</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2016-12-31</t>
+          <t>2024-04-30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1632,26 +1632,26 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sea Ice Concentration</t>
+          <t>Sea Level</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Sea Ice</t>
+          <t>Sea Level</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1978-10-25</t>
+          <t>1993-01-01</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2024-03-27</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1662,179 +1662,29 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sea Ice Edge and Type</t>
+          <t>Surface Geostrophic Currents</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Sea Ice</t>
+          <t>Surface Currents</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1978-10-25</t>
+          <t>1993-01-01</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2024-07-08</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
-        <is>
-          <t>Ocean</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Sea Ice Thickness</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Sea Ice</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>2002-10-01</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>2024-04-30</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Ocean</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Sea Level (Black Sea)</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Sea Level</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>1993-01-01</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>2020-06-03</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Ocean</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Sea Level (Global)</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Sea Level</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>1993-01-01</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Ocean</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Sea Level (Mediterranean)</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Sea Level</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>1993-01-01</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>2020-06-03</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Ocean</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Surface Geostrophic Currents</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Surface Currents</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>1993-01-01</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
         <is>
           <t>Ocean</t>
         </is>

--- a/ECV_time_coverage_perProduct.xlsx
+++ b/ECV_time_coverage_perProduct.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,7 +631,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -792,11 +792,11 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Precipitation_microwave</t>
+          <t>Precipitation_GIRAFE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2000-01-01</t>
+          <t>2002-01-01</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2017-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -822,26 +822,26 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Surface Rad Budget (CCI)</t>
+          <t>Precipitation_microwave</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Surface Radiation Budget</t>
+          <t>Precipitation</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1979-01-01</t>
+          <t>2000-01-01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2023-10-31</t>
+          <t>2017-12-31</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -852,11 +852,11 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Surface Rad Budget - (CMSAF/CLARA)</t>
+          <t>Surface Rad Budget (CCI)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -882,26 +882,26 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Total Column Water Vapour (HOAPS)</t>
+          <t>Surface Rad Budget - (CMSAF/CLARA)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Upper-air Water Vapour</t>
+          <t>Surface Radiation Budget</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1988-01-31</t>
+          <t>1979-01-01</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>2023-10-31</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Total Column Water Vapour (MERIS/SSMI)</t>
+          <t>Total Column Water Vapour (HOAPS)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -926,12 +926,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2002-05-01</t>
+          <t>1988-01-31</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2017-12-31</t>
+          <t>2020-12-31</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tropospheric Humidity Profiles (RO)</t>
+          <t>Total Column Water Vapour (MERIS/SSMI)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -956,12 +956,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2006-12-01</t>
+          <t>2002-05-01</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2017-12-31</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Upper Tropospheric Humidity</t>
+          <t>Tropospheric Humidity Profiles (RO)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -986,12 +986,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1999-01-01</t>
+          <t>2006-12-01</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2021-02-28</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1002,31 +1002,31 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Glaciers elevation and mass change data</t>
+          <t>Upper Tropospheric Humidity</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Glaciers</t>
+          <t>Upper-air Water Vapour</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1975-04-01</t>
+          <t>1999-01-01</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>2021-02-28</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Cryosphere</t>
+          <t>Atmospheric Physics</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Randolph Glacier Inventory for the year 2000</t>
+          <t>Glaciers elevation and mass change data</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1990-01-01</t>
+          <t>1975-04-01</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2010-12-31</t>
+          <t>2021-09-30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1062,26 +1062,26 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ice Sheet Gravimetric Mass Balance</t>
+          <t>Randolph Glacier Inventory for the year 2000</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ice Sheets</t>
+          <t>Glaciers</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2002-04-16</t>
+          <t>1990-01-01</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2022-12-17</t>
+          <t>2010-12-31</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ice Sheet Surface Elevation Change (Antarctica)</t>
+          <t>Ice Sheet Gravimetric Mass Balance</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1994-11-01</t>
+          <t>2002-04-16</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2020-06-01</t>
+          <t>2022-12-17</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ice Sheet Surface Elevation Change (Greenland)</t>
+          <t>Ice Sheet Surface Elevation Change (Antarctica)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1136,12 +1136,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1992-01-01</t>
+          <t>1994-11-01</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2020-06-01</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1152,11 +1152,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ice Sheet Velocity (Greenland)</t>
+          <t>Ice Sheet Surface Elevation Change (Greenland)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1166,12 +1166,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2018-10-01</t>
+          <t>1992-01-01</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>2024-01-01</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1182,46 +1182,46 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Surface Albedo 10-daily</t>
+          <t>Ice Sheet Velocity (Greenland)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Albedo</t>
+          <t>Ice Sheets</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1981-09-20</t>
+          <t>2018-10-01</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>2021-09-30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Land Biosphere</t>
+          <t>Cryosphere</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FAPAR</t>
+          <t>Surface Albedo 10-daily</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>FAPAR</t>
+          <t>Albedo</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1246,22 +1246,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fire Burned Areas</t>
+          <t>FAPAR</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>FAPAR</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2001-01-01</t>
+          <t>1981-09-20</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2020-06-30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Fire Radiative Power</t>
+          <t>Fire Burned Areas</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1286,12 +1286,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2020-02-01</t>
+          <t>2001-01-01</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2023-05-31</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1302,26 +1302,26 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>LAI</t>
+          <t>Fire Radiative Power</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>LAI</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1981-09-20</t>
+          <t>2020-01-01</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1332,26 +1332,26 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Land Cover</t>
+          <t>LAI</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Land Cover</t>
+          <t>LAI</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1992-01-01</t>
+          <t>1981-09-20</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2020-06-30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1362,31 +1362,31 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Lake Surface Temperature</t>
+          <t>Land Cover</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Lakes</t>
+          <t>Land Cover</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1995-06-01</t>
+          <t>1992-01-01</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Land Hydrology</t>
+          <t>Land Biosphere</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Lake Water Level</t>
+          <t>Lake Surface Temperature</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1992-10-13</t>
+          <t>1995-06-01</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2023-12-24</t>
+          <t>2023-12-31</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1426,22 +1426,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Soil Moisture</t>
+          <t>Lake Water Level</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Soil Moisture</t>
+          <t>Lakes</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1978-11-01</t>
+          <t>1992-10-13</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2023-12-24</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1452,56 +1452,56 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ocean Colour</t>
+          <t>Soil Moisture</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ocean Colour</t>
+          <t>Soil Moisture</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1997-09-04</t>
+          <t>1978-11-01</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ocean</t>
+          <t>Land Hydrology</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>Ocean Colour</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>Ocean Colour</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1981-08-24</t>
+          <t>1997-09-04</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2024-09-30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SST (ESA CCI GMPE)</t>
+          <t>SST</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1526,12 +1526,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1981-09-01</t>
+          <t>1981-08-24</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2016-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1542,26 +1542,26 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sea Ice Concentration</t>
+          <t>SST (ESA CCI GMPE)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Sea Ice</t>
+          <t>SST</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1978-10-25</t>
+          <t>1981-09-01</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2016-12-31</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sea Ice Edge and Type</t>
+          <t>Sea Ice Concentration</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sea Ice Thickness</t>
+          <t>Sea Ice Edge and Type</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1616,12 +1616,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2002-10-01</t>
+          <t>1978-10-25</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2024-04-30</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1632,26 +1632,26 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sea Level</t>
+          <t>Sea Ice Thickness</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Sea Level</t>
+          <t>Sea Ice</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1993-01-01</t>
+          <t>2002-10-01</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2024-04-30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1666,25 +1666,55 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>Sea Level</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Sea Level</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1993-01-01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2023-12-31</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Ocean</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>Surface Geostrophic Currents</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Surface Currents</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>1993-01-01</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2023-12-31</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
         <is>
           <t>Ocean</t>
         </is>

--- a/ECV_time_coverage_perProduct.xlsx
+++ b/ECV_time_coverage_perProduct.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,26 +582,26 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Surface Rad Budget - CCI/C3S</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Clouds</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Clouds</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1979-01-01</t>
+          <t>1995-06-01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023-10-31</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -612,26 +612,26 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Earth Rad Budget - C3S CCI</t>
+          <t>Surface Rad Budget - CMSAF CLARA-A2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Earth Radiation Budget</t>
+          <t>Clouds</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1979-01-01</t>
+          <t>1982-01-01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -642,16 +642,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Earth Rad Budget - C3S RMIB TotSolarIrrad</t>
+          <t>Surface Rad Budget - CMSAF CLARA-A3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Earth Radiation Budget</t>
+          <t>Clouds</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -672,11 +672,11 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Earth Rad Budget - ESA CLOUD CCI</t>
+          <t>Earth Rad Budget - C3S RMIB TotSolarIrrad</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -702,11 +702,11 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Earth Rad Budget - NASA CERES EBAF</t>
+          <t>Earth Rad Budget - CCI/C3S</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1979-01-01</t>
+          <t>1995-06-01</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -732,11 +732,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Earth Rad Budget - NOAA/NCEI HIRS</t>
+          <t>Earth Rad Budget - CMSAF CLARA-A3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -762,26 +762,26 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Precipitation</t>
+          <t>Earth Rad Budget - NASA CERES EBAF</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Precipitation</t>
+          <t>Earth Radiation Budget</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1979-01-01</t>
+          <t>2000-03-01</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024-03-31</t>
+          <t>2024-07-31</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -792,26 +792,26 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Precipitation_GIRAFE</t>
+          <t>Earth Rad Budget - NOAA/NCEI HIRS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Precipitation</t>
+          <t>Earth Radiation Budget</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2002-01-01</t>
+          <t>1979-01-01</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -822,11 +822,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Precipitation_microwave</t>
+          <t>Precipitation</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -836,12 +836,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2000-01-01</t>
+          <t>1979-01-01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2017-12-31</t>
+          <t>2024-03-31</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -852,26 +852,26 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Surface Rad Budget (CCI)</t>
+          <t>Precipitation_GIRAFE</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Surface Radiation Budget</t>
+          <t>Precipitation</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1979-01-01</t>
+          <t>2002-01-01</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2023-10-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -882,26 +882,26 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Surface Rad Budget - (CMSAF/CLARA)</t>
+          <t>Precipitation_microwave</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Surface Radiation Budget</t>
+          <t>Precipitation</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1979-01-01</t>
+          <t>2000-01-01</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2023-10-31</t>
+          <t>2017-12-31</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -912,26 +912,26 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Total Column Water Vapour (HOAPS)</t>
+          <t>Surface Rad Budget - CCI/C3S</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Upper-air Water Vapour</t>
+          <t>Surface Radiation Budget</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1988-01-31</t>
+          <t>1995-06-01</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -942,26 +942,26 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Total Column Water Vapour (MERIS/SSMI)</t>
+          <t>Surface Rad Budget - CMSAF CLARA-A2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Upper-air Water Vapour</t>
+          <t>Surface Radiation Budget</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2002-05-01</t>
+          <t>1982-01-01</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2017-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -972,26 +972,26 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tropospheric Humidity Profiles (RO)</t>
+          <t>Surface Rad Budget - CMSAF CLARA-A3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Upper-air Water Vapour</t>
+          <t>Surface Radiation Budget</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2006-12-01</t>
+          <t>1979-01-01</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Upper Tropospheric Humidity</t>
+          <t>Total Column Water Vapour (HOAPS)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1999-01-01</t>
+          <t>1988-01-31</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2021-02-28</t>
+          <t>2020-12-31</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1032,116 +1032,116 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Glaciers elevation and mass change data</t>
+          <t>Total Column Water Vapour (MERIS/SSMI)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Glaciers</t>
+          <t>Upper-air Water Vapour</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1975-04-01</t>
+          <t>2002-05-01</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>2017-12-31</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Cryosphere</t>
+          <t>Atmospheric Physics</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Randolph Glacier Inventory for the year 2000</t>
+          <t>Tropospheric Humidity Profiles (RO)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Glaciers</t>
+          <t>Upper-air Water Vapour</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1990-01-01</t>
+          <t>2006-12-01</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2010-12-31</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Cryosphere</t>
+          <t>Atmospheric Physics</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ice Sheet Gravimetric Mass Balance</t>
+          <t>Upper Tropospheric Humidity</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Ice Sheets</t>
+          <t>Upper-air Water Vapour</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2002-04-16</t>
+          <t>1999-01-01</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2022-12-17</t>
+          <t>2021-02-28</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Cryosphere</t>
+          <t>Atmospheric Physics</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ice Sheet Surface Elevation Change (Antarctica)</t>
+          <t>Glaciers elevation and mass change data</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ice Sheets</t>
+          <t>Glaciers</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1994-11-01</t>
+          <t>1975-04-01</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2020-06-01</t>
+          <t>2021-09-30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1152,26 +1152,26 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ice Sheet Surface Elevation Change (Greenland)</t>
+          <t>Randolph Glacier Inventory for the year 2000</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ice Sheets</t>
+          <t>Glaciers</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1992-01-01</t>
+          <t>1990-01-01</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2010-12-31</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1182,11 +1182,11 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ice Sheet Velocity (Greenland)</t>
+          <t>Ice Sheet Gravimetric Mass Balance</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1196,12 +1196,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2018-10-01</t>
+          <t>2002-04-16</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>2022-12-17</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1212,116 +1212,116 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Surface Albedo 10-daily</t>
+          <t>Ice Sheet Surface Elevation Change (Antarctica)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Albedo</t>
+          <t>Ice Sheets</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1981-09-20</t>
+          <t>1994-11-01</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>2020-06-01</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Land Biosphere</t>
+          <t>Cryosphere</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FAPAR</t>
+          <t>Ice Sheet Surface Elevation Change (Greenland)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>FAPAR</t>
+          <t>Ice Sheets</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1981-09-20</t>
+          <t>1992-01-01</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>2024-01-01</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Land Biosphere</t>
+          <t>Cryosphere</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Fire Burned Areas</t>
+          <t>Ice Sheet Velocity (Greenland)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Ice Sheets</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2001-01-01</t>
+          <t>2018-10-01</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2021-09-30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Land Biosphere</t>
+          <t>Cryosphere</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fire Radiative Power</t>
+          <t>Surface Albedo 10-daily</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Albedo</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2020-01-01</t>
+          <t>1981-09-20</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2020-06-30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1332,16 +1332,16 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>LAI</t>
+          <t>FAPAR</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>LAI</t>
+          <t>FAPAR</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1362,26 +1362,26 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Land Cover</t>
+          <t>Fire Burned Areas</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Land Cover</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1992-01-01</t>
+          <t>2001-01-01</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1392,206 +1392,206 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Lake Surface Temperature</t>
+          <t>Fire Radiative Power</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Lakes</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1995-06-01</t>
+          <t>2020-01-01</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Land Hydrology</t>
+          <t>Land Biosphere</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Lake Water Level</t>
+          <t>LAI</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Lakes</t>
+          <t>LAI</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1992-10-13</t>
+          <t>1981-09-20</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2023-12-24</t>
+          <t>2020-06-30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Land Hydrology</t>
+          <t>Land Biosphere</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Soil Moisture</t>
+          <t>Land Cover</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Soil Moisture</t>
+          <t>Land Cover</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1978-11-01</t>
+          <t>1992-01-01</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Land Hydrology</t>
+          <t>Land Biosphere</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ocean Colour</t>
+          <t>Lake Surface Temperature</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ocean Colour</t>
+          <t>Lakes</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1997-09-04</t>
+          <t>1995-06-01</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2023-12-31</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ocean</t>
+          <t>Land Hydrology</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>Lake Water Level</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>Lakes</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1981-08-24</t>
+          <t>1992-09-26</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2023-12-30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ocean</t>
+          <t>Land Hydrology</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SST (ESA CCI GMPE)</t>
+          <t>Soil Moisture</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>Soil Moisture</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1981-09-01</t>
+          <t>1978-11-01</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2016-12-31</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ocean</t>
+          <t>Land Hydrology</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sea Ice Concentration</t>
+          <t>Ocean Colour</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Sea Ice</t>
+          <t>Ocean Colour</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1978-10-25</t>
+          <t>1997-09-04</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2024-09-30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1602,26 +1602,26 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sea Ice Edge and Type</t>
+          <t>SST</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Sea Ice</t>
+          <t>SST</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1978-10-25</t>
+          <t>1981-08-24</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1632,26 +1632,26 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sea Ice Thickness</t>
+          <t>SST (ESA CCI GMPE)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Sea Ice</t>
+          <t>SST</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2002-10-01</t>
+          <t>1981-09-01</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2024-04-30</t>
+          <t>2016-12-31</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1662,26 +1662,26 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sea Level</t>
+          <t>Sea Ice Concentration</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Sea Level</t>
+          <t>Sea Ice</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1993-01-01</t>
+          <t>1978-10-25</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1692,29 +1692,119 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>Sea Ice Edge and Type</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Sea Ice</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1978-10-25</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Ocean</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Sea Ice Thickness</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Sea Ice</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2002-10-01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2024-04-30</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Ocean</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Sea Level</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Sea Level</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1993-01-01</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2023-06-07</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Ocean</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>Surface Geostrophic Currents</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Surface Currents</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>1993-01-01</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>2023-12-31</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2023-06-07</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
         <is>
           <t>Ocean</t>
         </is>
